--- a/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,89%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 16,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,62; 16,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,11; 9,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 10,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,85; 194,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,84; 139,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,29; 101,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,35; 135,31</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,94%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 7,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 7,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 6,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 6,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; 57,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 54,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 85,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 81,23</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,59; 45,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 68,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,95; 32,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,42; 31,36</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 6,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 8,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 5,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 3,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 57,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 80,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,36; 91,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,56; 44,39</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 6,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 4,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 4,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 69,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; 32,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,42; 41,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 43,77</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,7%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 5,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 2,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 35,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,72; 37,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 28,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 29,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>34,94%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 16,61</t>
+          <t>-1,85; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 16,73</t>
+          <t>-1,3; 7,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 9,35</t>
+          <t>-2,27; 5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 10,98</t>
+          <t>0,48; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 194,9</t>
+          <t>-10,85; 57,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 139,79</t>
+          <t>-6,95; 51,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,29; 101,56</t>
+          <t>-19,44; 63,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 135,31</t>
+          <t>4,67; 73,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>21,39%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,28</t>
+          <t>-2,07; 5,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 7,8</t>
+          <t>1,05; 8,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 6,36</t>
+          <t>-3,14; 3,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,81</t>
+          <t>-1,19; 6,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 57,96</t>
+          <t>-13,59; 45,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 54,08</t>
+          <t>6,48; 68,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 85,87</t>
+          <t>-22,95; 32,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 81,23</t>
+          <t>-12,77; 162,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-5,66%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 5,29</t>
+          <t>-2,07; 6,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,19</t>
+          <t>-0,32; 8,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,41</t>
+          <t>-1,36; 5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,4</t>
+          <t>-6,42; 3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 45,07</t>
+          <t>-10,92; 57,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 68,12</t>
+          <t>-3,15; 80,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 32,83</t>
+          <t>-13,36; 91,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 31,36</t>
+          <t>-54,96; 35,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,92</t>
+          <t>-0,03; 6,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 8,61</t>
+          <t>-2,47; 4,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,79</t>
+          <t>-2,52; 4,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,85</t>
+          <t>-1,78; 4,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 57,4</t>
+          <t>-0,18; 69,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 80,18</t>
+          <t>-13,3; 32,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 91,75</t>
+          <t>-19,42; 41,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 44,39</t>
+          <t>-14,02; 40,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,94</t>
+          <t>0,46; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 4,72</t>
+          <t>1,16; 5,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,02</t>
+          <t>-0,8; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,56</t>
+          <t>-0,38; 3,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 69,16</t>
+          <t>3,27; 35,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 32,48</t>
+          <t>7,72; 37,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 41,43</t>
+          <t>-7,01; 28,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 43,77</t>
+          <t>-3,22; 48,68</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>18,7%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>21,57%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,25%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 4,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 5,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 2,75</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 2,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 35,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 37,39</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 28,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 29,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 7,25</t>
+          <t>-1,31; 7,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,48</t>
+          <t>-1,77; 7,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,61</t>
+          <t>-2,33; 5,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,36</t>
+          <t>0,55; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 57,12</t>
+          <t>-7,77; 59,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 51,2</t>
+          <t>-9,49; 49,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 63,73</t>
+          <t>-18,65; 64,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 73,02</t>
+          <t>4,23; 70,94</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 5,29</t>
+          <t>-1,86; 5,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,19</t>
+          <t>0,94; 8,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,41</t>
+          <t>-3,01; 3,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,21</t>
+          <t>-1,46; 6,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 45,07</t>
+          <t>-12,27; 40,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 68,12</t>
+          <t>5,82; 69,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 32,83</t>
+          <t>-23,44; 34,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 162,58</t>
+          <t>-15,0; 133,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,92</t>
+          <t>-2,34; 5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 8,61</t>
+          <t>-0,19; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,79</t>
+          <t>-1,15; 6,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 3,2</t>
+          <t>-6,7; 3,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 57,4</t>
+          <t>-14,32; 47,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 80,18</t>
+          <t>-1,58; 75,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 91,75</t>
+          <t>-12,16; 95,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 35,84</t>
+          <t>-59,42; 35,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,94</t>
+          <t>0,07; 7,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 4,72</t>
+          <t>-2,7; 5,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,02</t>
+          <t>-2,91; 3,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,2</t>
+          <t>-1,95; 3,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 69,16</t>
+          <t>-0,22; 69,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 32,48</t>
+          <t>-14,18; 36,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 41,43</t>
+          <t>-22,59; 38,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 40,7</t>
+          <t>-15,41; 38,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,38</t>
+          <t>0,54; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,11</t>
+          <t>1,31; 5,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,75</t>
+          <t>-0,66; 2,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,87</t>
+          <t>-0,8; 3,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 35,0</t>
+          <t>3,4; 36,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 37,39</t>
+          <t>7,77; 36,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 28,16</t>
+          <t>-5,61; 29,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 48,68</t>
+          <t>-7,36; 45,11</t>
         </is>
       </c>
     </row>
